--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
           <t>tags</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,8 +507,15 @@
           <t>2035-12-31</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -520,9 +532,12 @@
           <t>2035-12-31</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,9 +553,12 @@
           <t>2035-12-31</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -556,9 +574,12 @@
           <t>2026-12-31</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,9 +595,12 @@
           <t>2027-12-31</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -592,9 +616,12 @@
           <t>2026-12-31</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -610,9 +637,12 @@
           <t>2030-12-31</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -628,9 +658,12 @@
           <t>2035-12-31</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>1</v>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -646,9 +679,12 @@
           <t>2027-12-31</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,9 +700,12 @@
           <t>2030-12-31</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -682,9 +721,12 @@
           <t>2035-12-31</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -695,9 +737,13 @@
           <t>Playbooks</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -708,9 +754,13 @@
           <t>Launch Playbook</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>1</v>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -721,9 +771,13 @@
           <t>Run Playbook</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -734,9 +788,13 @@
           <t>New Distribution Model</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -747,9 +805,13 @@
           <t>New network hardware, cannister &amp; cooker</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -760,9 +822,13 @@
           <t>Extend the proposition</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -773,9 +839,13 @@
           <t>Agree on country #3</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -786,9 +856,13 @@
           <t>Secure operating licenses for coutry #3</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -799,9 +873,13 @@
           <t>Secure Carbon Project for Country #3</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>1</v>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -812,9 +890,13 @@
           <t>Complete the Poatform</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>1</v>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -825,8 +907,20 @@
           <t>Agree the Operating Model</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-06-30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -838,8 +932,20 @@
           <t>Understand the 2026 carbon funding model</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
     </row>
   </sheetData>
